--- a/tests/data/some_existing_ids.xlsx
+++ b/tests/data/some_existing_ids.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" state="visible" r:id="rId1"/>
@@ -79,21 +79,89 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -655,7 +723,7 @@
       <c r="E9" s="3" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -671,9 +739,9 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="14.44140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
-    <row customHeight="1" ht="15" r="1">
+    <row r="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>31.7.18</t>
@@ -686,7 +754,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -702,9 +770,9 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="14.44140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
-    <row customHeight="1" ht="15" r="1">
+    <row r="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>version</t>
@@ -715,6 +783,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/tests/data/some_existing_ids.xlsx
+++ b/tests/data/some_existing_ids.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" state="visible" r:id="rId1"/>
@@ -79,89 +79,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -723,7 +655,7 @@
       <c r="E9" s="3" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -739,9 +671,9 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="14.44140625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>31.7.18</t>
@@ -754,7 +686,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -770,9 +702,9 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="14.44140625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>version</t>
@@ -783,6 +715,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/tests/data/some_existing_ids.xlsx
+++ b/tests/data/some_existing_ids.xlsx
@@ -2,8 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,62 +12,30 @@
     <sheet name="metadata" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="4">
-    <font>
-      <name val="Calibri"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-    </font>
+  <numFmts count="1">
+    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.1499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -81,19 +50,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -108,44 +72,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -172,32 +136,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -224,24 +170,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -253,142 +181,166 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -398,106 +350,106 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>variable</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>scenario</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>param</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>ref value</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>mean growth</t>
         </is>
       </c>
-      <c r="G1" s="4" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>initial_value_proportional_variation</t>
         </is>
       </c>
-      <c r="H1" s="4" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>variability growth</t>
         </is>
       </c>
-      <c r="I1" s="4" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>ref date</t>
         </is>
       </c>
-      <c r="J1" s="5" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
       </c>
-      <c r="K1" s="4" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>label</t>
         </is>
       </c>
-      <c r="L1" s="4" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>source</t>
         </is>
       </c>
-      <c r="M1" s="4" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>comment</t>
         </is>
       </c>
-      <c r="N1" s="4" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>control</t>
         </is>
       </c>
-      <c r="O1" s="4" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>scenario notes</t>
         </is>
       </c>
-      <c r="P1" s="5" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
-      <c r="Q1" s="4" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>ui variable</t>
         </is>
       </c>
-      <c r="R1" s="5" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>user name</t>
         </is>
       </c>
-      <c r="S1" s="6" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
@@ -533,7 +485,7 @@
       <c r="H2" t="n">
         <v>0.05</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I2" s="1" t="n">
         <v>43617</v>
       </c>
       <c r="J2" t="inlineStr">
@@ -541,17 +493,17 @@
           <t>W</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>what does it mean? How do collect this info?</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="R2" s="3" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>power draw of laptop</t>
         </is>
@@ -590,7 +542,7 @@
       <c r="H3" t="n">
         <v>0.05</v>
       </c>
-      <c r="I3" s="2" t="n">
+      <c r="I3" s="1" t="n">
         <v>43617</v>
       </c>
       <c r="J3" t="inlineStr">
@@ -598,7 +550,7 @@
           <t>minute</t>
         </is>
       </c>
-      <c r="Q3" s="3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -627,7 +579,7 @@
       <c r="H4" t="n">
         <v>0.1</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="I4" s="1" t="n">
         <v>42522</v>
       </c>
       <c r="J4" t="inlineStr">
@@ -639,30 +591,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5">
-      <c r="E5" s="3" t="n"/>
-      <c r="I5" s="2" t="n"/>
-      <c r="J5" s="3" t="n"/>
-    </row>
-    <row r="6">
-      <c r="I6" s="2" t="n"/>
-    </row>
-    <row r="7">
-      <c r="I7" s="2" t="n"/>
-    </row>
-    <row r="8"/>
-    <row r="9">
-      <c r="E9" s="3" t="n"/>
-    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:B1"/>
@@ -671,29 +608,29 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="14.44140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row customHeight="1" ht="15" r="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="1">
+      <c r="A1" t="inlineStr">
         <is>
           <t>31.7.18</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>DS change all to lowercase</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:B1"/>
@@ -702,19 +639,19 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="14.44140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row customHeight="1" ht="15" r="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="1">
+      <c r="A1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="B1" s="1" t="n">
+      <c r="B1" t="n">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/tests/data/some_existing_ids.xlsx
+++ b/tests/data/some_existing_ids.xlsx
@@ -1,38 +1,156 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jedpreist/CodingStuff/DIMPACT/eam-data-tools/tests/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1763D9B-F14A-964D-BD3A-A68A8352EB67}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="params" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="changes" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="metadata" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="params" sheetId="1" r:id="rId1"/>
+    <sheet name="changes" sheetId="2" r:id="rId2"/>
+    <sheet name="metadata" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>scenario</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>param</t>
+  </si>
+  <si>
+    <t>ref value</t>
+  </si>
+  <si>
+    <t>mean growth</t>
+  </si>
+  <si>
+    <t>initial_value_proportional_variation</t>
+  </si>
+  <si>
+    <t>variability growth</t>
+  </si>
+  <si>
+    <t>ref date</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>control</t>
+  </si>
+  <si>
+    <t>scenario notes</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>ui variable</t>
+  </si>
+  <si>
+    <t>user name</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>interp</t>
+  </si>
+  <si>
+    <t>linear</t>
+  </si>
+  <si>
+    <t>{"2020-01-01":10, "2031-06-01":9.5}</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>what does it mean? How do collect this info?</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>power draw of laptop</t>
+  </si>
+  <si>
+    <t>time_laptop</t>
+  </si>
+  <si>
+    <t>{"2020-01-01":100, "2031-06-01":95}</t>
+  </si>
+  <si>
+    <t>minute</t>
+  </si>
+  <si>
+    <t>energy_intensity_network</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>kWh/GB</t>
+  </si>
+  <si>
+    <t>31.7.18</t>
+  </si>
+  <si>
+    <t>DS change all to lowercase</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>power_laptop</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -48,16 +166,25 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -345,313 +472,219 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>variable</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>scenario</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>param</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>ref value</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>mean growth</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>initial_value_proportional_variation</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>variability growth</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>ref date</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>unit</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>label</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>source</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>comment</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>control</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>scenario notes</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>ui variable</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>user name</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>power_latop</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>interp</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>linear</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>{"2020-01-01":10, "2031-06-01":9.5}</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>0.1</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>0.05</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="I2" s="1">
         <v>43617</v>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>what does it mean? How do collect this info?</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>power draw of laptop</t>
-        </is>
-      </c>
-      <c r="S2" t="n">
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>time_laptop</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>interp</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>linear</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>{"2020-01-01":100, "2031-06-01":95}</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>0.1</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>0.05</v>
       </c>
-      <c r="I3" s="1" t="n">
+      <c r="I3" s="1">
         <v>43617</v>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>minute</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>energy_intensity_network</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>exp</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4">
         <v>20</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>0.25</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>0.1</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>0.1</v>
       </c>
-      <c r="I4" s="1" t="n">
+      <c r="I4" s="1">
         <v>42522</v>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>kWh/GB</t>
-        </is>
-      </c>
-      <c r="S4" t="n">
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>31.7.18</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>DS change all to lowercase</t>
-        </is>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>version</t>
-        </is>
-      </c>
-      <c r="B1" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>